--- a/tests/test_data/notice_transformer/mapping_suite_processor_repository/test_package_fake/transformation/invalid_conceptual_mappings.xlsx
+++ b/tests/test_data/notice_transformer/mapping_suite_processor_repository/test_package_fake/transformation/invalid_conceptual_mappings.xlsx
@@ -115,10 +115,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
